--- a/Results/Results_Overview.xlsx
+++ b/Results/Results_Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/fv124_ic_ac_uk/Documents/Documents/Individual Project Report Version/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="950" documentId="8_{03B9790A-DFA5-4D81-B333-A16BB486151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F7A779-C505-458B-A376-3D25BC016990}"/>
+  <xr:revisionPtr revIDLastSave="952" documentId="8_{03B9790A-DFA5-4D81-B333-A16BB486151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC934361-03D8-4A2B-A092-EC9DB9794F23}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{844A5098-A0C8-452D-A786-0F1B8095EFE2}"/>
+    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{844A5098-A0C8-452D-A786-0F1B8095EFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactile Main Results" sheetId="1" r:id="rId1"/>
@@ -931,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,7 +1862,7 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="121" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2219,8 +2219,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="78" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Results/Results_Overview.xlsx
+++ b/Results/Results_Overview.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/fv124_ic_ac_uk/Documents/Documents/Individual Project Report Version/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="8_{03B9790A-DFA5-4D81-B333-A16BB486151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC934361-03D8-4A2B-A092-EC9DB9794F23}"/>
+  <xr:revisionPtr revIDLastSave="2330" documentId="8_{03B9790A-DFA5-4D81-B333-A16BB486151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68846220-61F5-4FC6-873D-184B79BCD432}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{844A5098-A0C8-452D-A786-0F1B8095EFE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{844A5098-A0C8-452D-A786-0F1B8095EFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactile Main Results" sheetId="1" r:id="rId1"/>
     <sheet name="Tactile Ablation Study Results" sheetId="2" r:id="rId2"/>
     <sheet name="Tactile Rank Tests" sheetId="3" r:id="rId3"/>
     <sheet name="VLA" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Pipeline Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="217">
   <si>
     <t>Model</t>
   </si>
@@ -525,6 +525,195 @@
       </rPr>
       <t>bridge CNNs and Transformers, that is reason why only this was used to connect to transformer</t>
     </r>
+  </si>
+  <si>
+    <t>Full Pipeline Test</t>
+  </si>
+  <si>
+    <t>VLA Computation Time</t>
+  </si>
+  <si>
+    <t>Tactile Collection Time</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>Movement Time</t>
+  </si>
+  <si>
+    <t>Tactile Predictio + Feedback</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Rest Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>2. Identify the ripest [object]</t>
+  </si>
+  <si>
+    <t>Not identifying</t>
+  </si>
+  <si>
+    <t>Wrong hoover</t>
+  </si>
+  <si>
+    <t>Banana, Lemon, Corn</t>
+  </si>
+  <si>
+    <t>Pepper, Lime, Banana</t>
+  </si>
+  <si>
+    <t>Lemon, Zucchini, Strawberry</t>
+  </si>
+  <si>
+    <t>Zucchini, Lemon, Carrot</t>
+  </si>
+  <si>
+    <t>Lime, Corn, Kiwi</t>
+  </si>
+  <si>
+    <t>Lime, Lemon, Kiwi</t>
+  </si>
+  <si>
+    <t>Banana, Lemon, Corn, Zucchini, Carrot</t>
+  </si>
+  <si>
+    <t>Patato, Banana, Banana, Corn, Zucchini</t>
+  </si>
+  <si>
+    <t>Kiwi, Patato, Strawberry, Carrot, Carrot</t>
+  </si>
+  <si>
+    <t>Kiwi, Carrot, Lime, Strawberry, Zucchini</t>
+  </si>
+  <si>
+    <t>Kiwi, Lime, Strawberry, Zucchini, Patato</t>
+  </si>
+  <si>
+    <t>Lemon, Pepper, Corn, Patato, Pepper</t>
+  </si>
+  <si>
+    <t>1. Identify the hardness of [object]</t>
+  </si>
+  <si>
+    <t>3. Summarize the ripeness of the [object],  [object] and [object]</t>
+  </si>
+  <si>
+    <t>4. Summarize the ripeness of all fruits in the scene</t>
+  </si>
+  <si>
+    <t>Object-Level SR</t>
+  </si>
+  <si>
+    <t>Task-Level SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Banana, Strawberry, Zucchini</t>
+  </si>
+  <si>
+    <t>Kiwi not recognized, lime not well located</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiwi not recognized </t>
+  </si>
+  <si>
+    <t>Not accurate banana</t>
+  </si>
+  <si>
+    <t>not recognized</t>
+  </si>
+  <si>
+    <t>kiw not recognized</t>
+  </si>
+  <si>
+    <t>not recognized + not accurate</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Patato/Potato</t>
+  </si>
+  <si>
+    <t>Carrot, Lime, Potato</t>
+  </si>
+  <si>
+    <t>Carrot, Corn, Potato</t>
+  </si>
+  <si>
+    <t>Potato, Kiwi, Strawberry</t>
+  </si>
+  <si>
+    <t>Lime, Lime, Lemon, Strawberry, Zucchini</t>
+  </si>
+  <si>
+    <t>Pepper, Pepper, Corn, Lemon, Banana</t>
+  </si>
+  <si>
+    <t>not selected</t>
+  </si>
+  <si>
+    <t>not accurate hoover</t>
+  </si>
+  <si>
+    <t>zucchini not recognized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad hoover to patato and banana, wel 5 getest </t>
+  </si>
+  <si>
+    <t>no kiwi and strawberry</t>
+  </si>
+  <si>
+    <t>a lime was a lemon, strawberry an apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana bad hoover,  </t>
+  </si>
+  <si>
+    <t>banana not well located</t>
+  </si>
+  <si>
+    <t>Carrot, Patato, Lemon, Pepper, Corn</t>
+  </si>
+  <si>
+    <t>Banana, Lime, Kiwi, Kiwi, Strawberry</t>
+  </si>
+  <si>
+    <t>one kiwi bad movement, other wrongly labeled as strawberry</t>
+  </si>
+  <si>
+    <t>again strawberry is apple and kiwi not recognized</t>
+  </si>
+  <si>
+    <t>only patato and lime</t>
+  </si>
+  <si>
+    <t>Patato not good</t>
+  </si>
+  <si>
+    <t>patatao and corn not</t>
+  </si>
+  <si>
+    <t>3 identfied, but pepper not good hoover</t>
+  </si>
+  <si>
+    <t>kiwi not recognized</t>
+  </si>
+  <si>
+    <t>lime not accurate</t>
   </si>
 </sst>
 </file>
@@ -580,13 +769,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,7 +2058,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,7 +2671,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>0.94</v>
@@ -2493,8 +2688,20 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>0.85</v>
+      </c>
+      <c r="H8">
+        <v>0.95</v>
+      </c>
+      <c r="J8">
+        <v>27.85</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3001,8 +3208,20 @@
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="G22">
+        <v>0.74</v>
+      </c>
+      <c r="H22">
+        <v>0.94</v>
+      </c>
+      <c r="J22">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3245,7 +3464,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3264,7 +3483,7 @@
         <v>29.58</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -3420,8 +3639,20 @@
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>0.78</v>
+      </c>
+      <c r="H36">
+        <v>0.95</v>
+      </c>
+      <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3637,7 +3868,7 @@
       </c>
       <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>7.0277777777777777</v>
+        <v>7.1944444444444446</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" ref="F43" si="1">AVERAGE(F3:F42)</f>
@@ -3645,11 +3876,11 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" ref="G43" si="2">AVERAGE(G3:G42)</f>
-        <v>0.63212121212121219</v>
+        <v>0.64527777777777784</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ref="H43" si="3">AVERAGE(H3:H42)</f>
-        <v>0.94129032258064504</v>
+        <v>0.94176470588235284</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" ref="I43" si="4">AVERAGE(I3:I42)</f>
@@ -3657,15 +3888,15 @@
       </c>
       <c r="J43" s="3">
         <f t="shared" ref="J43" si="5">AVERAGE(J3:J42)</f>
-        <v>34.474545454545456</v>
+        <v>34.347500000000004</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" ref="K43" si="6">AVERAGE(K3:K42)</f>
-        <v>5.5483870967741939</v>
+        <v>5.6470588235294121</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" ref="L43" si="7">AVERAGE(L3:L42)</f>
-        <v>0.77500000000000002</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3684,7 +3915,7 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" si="8"/>
-        <v>1.6617857414503119</v>
+        <v>1.6606129575304533</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="8"/>
@@ -3692,11 +3923,11 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="8"/>
-        <v>3.758476625424749E-2</v>
+        <v>3.8858279741494139E-2</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="8"/>
-        <v>1.5899730245071589E-2</v>
+        <v>1.5174688118079005E-2</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="8"/>
@@ -3704,15 +3935,15 @@
       </c>
       <c r="J44" s="3">
         <f t="shared" si="8"/>
-        <v>1.1333808766154039</v>
+        <v>1.1439417290981373</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="8"/>
-        <v>1.3514207153371263</v>
+        <v>1.3335505235549221</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="8"/>
-        <v>0.13525064088677979</v>
+        <v>0.11565177796862841</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3733,7 +3964,7 @@
       </c>
       <c r="E45" s="3">
         <f t="shared" si="9"/>
-        <v>5.3659920363274658</v>
+        <v>5.5338314869139911</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="9"/>
@@ -3741,11 +3972,11 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="9"/>
-        <v>0.59453644586696475</v>
+        <v>0.6064194980362837</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="9"/>
-        <v>0.92539059233557341</v>
+        <v>0.92659001776427385</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="9"/>
@@ -3753,15 +3984,15 @@
       </c>
       <c r="J45" s="3">
         <f t="shared" si="9"/>
-        <v>33.341164577930051</v>
+        <v>33.203558270901866</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="9"/>
-        <v>4.1969663814370675</v>
+        <v>4.3135082999744903</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" si="9"/>
-        <v>0.63974935911322017</v>
+        <v>0.73434822203137151</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3782,7 +4013,7 @@
       </c>
       <c r="E46" s="3">
         <f t="shared" si="10"/>
-        <v>8.6895635192280896</v>
+        <v>8.8550574019748982</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="10"/>
@@ -3790,11 +4021,11 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="10"/>
-        <v>0.66970597837545964</v>
+        <v>0.68413605751927198</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="10"/>
-        <v>0.95719005282571668</v>
+        <v>0.95693939400043182</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="10"/>
@@ -3802,15 +4033,15 @@
       </c>
       <c r="J46" s="3">
         <f t="shared" si="10"/>
-        <v>35.607926331160861</v>
+        <v>35.491441729098142</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="10"/>
-        <v>6.8998078121113204</v>
+        <v>6.980609347084334</v>
       </c>
       <c r="L46" s="3">
         <f t="shared" si="10"/>
-        <v>0.91025064088677987</v>
+        <v>0.96565177796862844</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3831,7 +4062,7 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" si="11"/>
-        <v>5.1234000814948786</v>
+        <v>5.1197843077638234</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="11"/>
@@ -3839,11 +4070,11 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="11"/>
-        <v>0.11572584048563411</v>
+        <v>0.11980275713556816</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="11"/>
-        <v>4.8906885555457837E-2</v>
+        <v>4.6745278983726629E-2</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="11"/>
@@ -3851,15 +4082,15 @@
       </c>
       <c r="J47" s="3">
         <f t="shared" si="11"/>
-        <v>3.4897504390316536</v>
+        <v>3.5268512672227725</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="11"/>
-        <v>4.1569119251412934</v>
+        <v>4.1079718263337144</v>
       </c>
       <c r="L47" s="3">
         <f t="shared" si="11"/>
-        <v>0.41758232721225164</v>
+        <v>0.35707142142714249</v>
       </c>
     </row>
   </sheetData>
@@ -3870,14 +4101,2326 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C2A21-9DF5-4E29-8956-B6577536C5C0}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.48</v>
+      </c>
+      <c r="E3">
+        <v>57.18</v>
+      </c>
+      <c r="F3">
+        <v>8.01</v>
+      </c>
+      <c r="G3">
+        <v>6.46</v>
+      </c>
+      <c r="H3">
+        <f>I3-D3-E3-F3-G3</f>
+        <v>11.199999999999996</v>
+      </c>
+      <c r="I3">
+        <v>84.33</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="N3">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>6.96</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3" si="0">-M3-N3-O3-P3+R3</f>
+        <v>10.570000000000007</v>
+      </c>
+      <c r="R3">
+        <v>128.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H51" si="1">I4-D4-E4-F4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>44</v>
+      </c>
+      <c r="N4">
+        <v>44.78</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>6.47</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q51" si="2">-M4-N4-O4-P4+R4</f>
+        <v>6.4899999999999949</v>
+      </c>
+      <c r="R4">
+        <v>109.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3.78</v>
+      </c>
+      <c r="E5">
+        <v>53.23</v>
+      </c>
+      <c r="F5">
+        <v>8.01</v>
+      </c>
+      <c r="G5">
+        <v>9.36</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>10.960000000000008</v>
+      </c>
+      <c r="I5">
+        <v>85.34</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>44.45</v>
+      </c>
+      <c r="N5">
+        <v>32.1</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>6.39</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>6.3799999999999812</v>
+      </c>
+      <c r="R5">
+        <v>97.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2.17</v>
+      </c>
+      <c r="E6">
+        <v>30.02</v>
+      </c>
+      <c r="F6">
+        <v>8.01</v>
+      </c>
+      <c r="G6">
+        <v>8.67</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>8.4899999999999967</v>
+      </c>
+      <c r="I6">
+        <v>57.36</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="N6">
+        <v>37.68</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>5.42</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>6.269999999999996</v>
+      </c>
+      <c r="R6">
+        <v>97.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.01</v>
+      </c>
+      <c r="E7">
+        <v>48.17</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>6.76</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8.0899999999999945</v>
+      </c>
+      <c r="I7">
+        <v>72.03</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>40.81</v>
+      </c>
+      <c r="N7">
+        <v>43.5</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>6.59</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="R7">
+        <v>105.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2.19</v>
+      </c>
+      <c r="E8">
+        <v>52.17</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>9.31</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>8.2099999999999955</v>
+      </c>
+      <c r="I8">
+        <v>79.88</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>40.82</v>
+      </c>
+      <c r="N8">
+        <v>45.11</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>9.48</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="R8">
+        <v>109.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2.44</v>
+      </c>
+      <c r="E9">
+        <v>41.46</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>15.02</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9" si="3">I9-D9-E9-F9-G9</f>
+        <v>7.0999999999999979</v>
+      </c>
+      <c r="I9">
+        <v>74.02</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>48.27</v>
+      </c>
+      <c r="N9">
+        <v>25.89</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>12.94</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>8.8700000000000045</v>
+      </c>
+      <c r="R9">
+        <v>103.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.36</v>
+      </c>
+      <c r="E10">
+        <v>25.11</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>10.36</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>7.7600000000000051</v>
+      </c>
+      <c r="I10">
+        <v>52.59</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>62.73</v>
+      </c>
+      <c r="N10">
+        <v>17.46</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>6.75</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>7.1800000000000068</v>
+      </c>
+      <c r="R10">
+        <v>102.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1.55</v>
+      </c>
+      <c r="E12">
+        <v>37.21</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>6.63</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>7.9500000000000055</v>
+      </c>
+      <c r="I12">
+        <v>61.34</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>41.33</v>
+      </c>
+      <c r="N12">
+        <v>37.94</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>15.04</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>6.3700000000000045</v>
+      </c>
+      <c r="R12">
+        <v>108.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <f xml:space="preserve"> AVERAGE(C3:C12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(K3:K12)</f>
+        <v>0.9</v>
+      </c>
+      <c r="L13" s="7">
+        <f>AVERAGE(L3:L12)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>1.64</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>82.7</v>
+      </c>
+      <c r="I16">
+        <v>109.56</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>44.61</v>
+      </c>
+      <c r="N16">
+        <v>62.06</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>11.36</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>6.039999999999992</v>
+      </c>
+      <c r="R16">
+        <v>140.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+      <c r="E17">
+        <v>92.82</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>11.03</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>6.0600000000000041</v>
+      </c>
+      <c r="I17">
+        <v>127.41</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>49.1</v>
+      </c>
+      <c r="N17">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>11.76</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>5.6300000000000239</v>
+      </c>
+      <c r="R17">
+        <v>155.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3.65</v>
+      </c>
+      <c r="E18">
+        <v>84.21</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>10.78</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>8.94</v>
+      </c>
+      <c r="I18">
+        <v>123.58</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>48.65</v>
+      </c>
+      <c r="N18">
+        <v>57.73</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>11.11</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>6.6399999999999864</v>
+      </c>
+      <c r="R18">
+        <v>140.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3.59</v>
+      </c>
+      <c r="E19">
+        <v>98.26</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>6.5399999999999778</v>
+      </c>
+      <c r="I19">
+        <v>135.38999999999999</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.77</v>
+      </c>
+      <c r="N19">
+        <v>93.42</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>9.42</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>8.1900000000000261</v>
+      </c>
+      <c r="R19">
+        <v>177.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.32</v>
+      </c>
+      <c r="E20">
+        <v>75.87</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>9.27</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>6.0500000000000078</v>
+      </c>
+      <c r="I20">
+        <v>108.51</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>45.87</v>
+      </c>
+      <c r="N20">
+        <v>77.7</v>
+      </c>
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>39.64</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>5.8300000000000125</v>
+      </c>
+      <c r="R20">
+        <v>185.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>1.08</v>
+      </c>
+      <c r="E21">
+        <v>57.08</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>7.75</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000028</v>
+      </c>
+      <c r="I21">
+        <v>79.61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>51.85</v>
+      </c>
+      <c r="N21">
+        <v>78.91</v>
+      </c>
+      <c r="O21">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>6.2800000000000011</v>
+      </c>
+      <c r="R21">
+        <v>163.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3.05</v>
+      </c>
+      <c r="E22">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>5.6100000000000065</v>
+      </c>
+      <c r="I22">
+        <v>103.55</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>45.57</v>
+      </c>
+      <c r="N22">
+        <v>48.88</v>
+      </c>
+      <c r="O22">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>11.49</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="R22">
+        <v>128.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.87</v>
+      </c>
+      <c r="E23">
+        <v>62.42</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>6.26</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>8.0399999999999974</v>
+      </c>
+      <c r="I23">
+        <v>94.59</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>48.86</v>
+      </c>
+      <c r="N23">
+        <v>85.28</v>
+      </c>
+      <c r="O23">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>10.7</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>7.7600000000000193</v>
+      </c>
+      <c r="R23">
+        <v>168.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1.5</v>
+      </c>
+      <c r="E25">
+        <v>84.21</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>9.27</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>8.1700000000000124</v>
+      </c>
+      <c r="I25">
+        <v>119.15</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>47.47</v>
+      </c>
+      <c r="N25">
+        <v>88.86</v>
+      </c>
+      <c r="O25">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>12.66</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>9.620000000000033</v>
+      </c>
+      <c r="R25">
+        <v>174.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <f>AVERAGE(B16:B25)</f>
+        <v>0.7</v>
+      </c>
+      <c r="C26" s="7">
+        <f>AVERAGE(C16:C25)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(K16:K25)</f>
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="7">
+        <f>AVERAGE(L16:L25)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D29">
+        <v>2.33</v>
+      </c>
+      <c r="E29">
+        <v>155.97</v>
+      </c>
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>13.56</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>6.5099999999999927</v>
+      </c>
+      <c r="I29">
+        <v>202.37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>57.51</v>
+      </c>
+      <c r="N29">
+        <v>113.93</v>
+      </c>
+      <c r="O29">
+        <v>24</v>
+      </c>
+      <c r="P29">
+        <v>13.28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+      <c r="R29">
+        <v>217.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1.74</v>
+      </c>
+      <c r="E30">
+        <v>51.56</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>10.86</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>5.8500000000000085</v>
+      </c>
+      <c r="I30">
+        <v>86.01</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>50.68</v>
+      </c>
+      <c r="N30">
+        <v>141.91</v>
+      </c>
+      <c r="O30">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>16.86</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>6.2900000000000205</v>
+      </c>
+      <c r="R30">
+        <v>239.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1.45</v>
+      </c>
+      <c r="E31">
+        <v>149.4</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>12.29</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>5.8500000000000156</v>
+      </c>
+      <c r="I31">
+        <v>192.99</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>46.32</v>
+      </c>
+      <c r="N31">
+        <v>97.31</v>
+      </c>
+      <c r="O31">
+        <v>24</v>
+      </c>
+      <c r="P31">
+        <v>12.9</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>5.8899999999999864</v>
+      </c>
+      <c r="R31">
+        <v>186.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3.71</v>
+      </c>
+      <c r="E32">
+        <v>136.49</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>11.95</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>7.48999999999997</v>
+      </c>
+      <c r="I32">
+        <v>183.64</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="N32">
+        <v>97.81</v>
+      </c>
+      <c r="O32">
+        <v>24</v>
+      </c>
+      <c r="P32">
+        <v>14.69</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>6.5799999999999841</v>
+      </c>
+      <c r="R32">
+        <v>183.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2.75</v>
+      </c>
+      <c r="E33">
+        <v>112.83</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>10.27</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>10.629999999999992</v>
+      </c>
+      <c r="I33">
+        <v>160.47999999999999</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>45.78</v>
+      </c>
+      <c r="N33">
+        <v>124.49</v>
+      </c>
+      <c r="O33">
+        <v>24</v>
+      </c>
+      <c r="P33">
+        <v>11.57</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33" si="4">-M33-N33-O33-P33+R33</f>
+        <v>6.0900000000000318</v>
+      </c>
+      <c r="R33">
+        <v>211.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M35">
+        <v>44.16</v>
+      </c>
+      <c r="N35">
+        <v>57.03</v>
+      </c>
+      <c r="O35">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>8.2900000000000063</v>
+      </c>
+      <c r="R35">
+        <v>135.28</v>
+      </c>
+      <c r="S35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2.81</v>
+      </c>
+      <c r="E36">
+        <v>129.6</v>
+      </c>
+      <c r="F36">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>11.51</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>6.0100000000000104</v>
+      </c>
+      <c r="I36">
+        <v>173.93</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>42.34</v>
+      </c>
+      <c r="N36">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="O36">
+        <v>24</v>
+      </c>
+      <c r="P36">
+        <v>12.88</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>5.9699999999999989</v>
+      </c>
+      <c r="R36">
+        <v>158.47999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E37">
+        <v>124.79</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>14.2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>6.2100000000000115</v>
+      </c>
+      <c r="I37">
+        <v>171.65</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>41.86</v>
+      </c>
+      <c r="N37">
+        <v>95.95</v>
+      </c>
+      <c r="O37">
+        <v>24</v>
+      </c>
+      <c r="P37">
+        <v>12.64</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>5.4900000000000091</v>
+      </c>
+      <c r="R37">
+        <v>179.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D38">
+        <v>2.83</v>
+      </c>
+      <c r="E38">
+        <v>82.88</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>5.99</v>
+      </c>
+      <c r="I38">
+        <v>117.82</v>
+      </c>
+      <c r="J38" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M38">
+        <v>43.58</v>
+      </c>
+      <c r="N38">
+        <v>63.79</v>
+      </c>
+      <c r="O38">
+        <v>16</v>
+      </c>
+      <c r="P38">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>6.0200000000000102</v>
+      </c>
+      <c r="R38">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="S38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f>AVERAGE(B29:B38)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C39" s="7">
+        <f>AVERAGE(C29:C38)</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE(K29:K38)</f>
+        <v>0.7</v>
+      </c>
+      <c r="L39" s="7">
+        <f>AVERAGE(L29:L38)</f>
+        <v>0.86666666666666681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>4.33</v>
+      </c>
+      <c r="E42">
+        <v>176.14</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>15.06</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="I42">
+        <v>242.97</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="M42">
+        <v>54.18</v>
+      </c>
+      <c r="N42">
+        <v>156.63999999999999</v>
+      </c>
+      <c r="O42">
+        <v>32</v>
+      </c>
+      <c r="P42">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>8.9800000000000182</v>
+      </c>
+      <c r="R42">
+        <v>268.24</v>
+      </c>
+      <c r="S42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E43">
+        <v>110.9</v>
+      </c>
+      <c r="F43">
+        <v>32.01</v>
+      </c>
+      <c r="G43">
+        <v>15.37</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>7.140000000000013</v>
+      </c>
+      <c r="I43">
+        <v>170.36</v>
+      </c>
+      <c r="J43" t="s">
+        <v>202</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>78.38</v>
+      </c>
+      <c r="N43">
+        <v>239.26</v>
+      </c>
+      <c r="O43">
+        <v>40</v>
+      </c>
+      <c r="P43">
+        <v>19.16</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>7.5099999999999909</v>
+      </c>
+      <c r="R43">
+        <v>384.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D44">
+        <v>6.81</v>
+      </c>
+      <c r="E44">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="F44">
+        <v>24.01</v>
+      </c>
+      <c r="G44">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>9.0599999999999987</v>
+      </c>
+      <c r="I44">
+        <v>188.82</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="M44">
+        <v>51.34</v>
+      </c>
+      <c r="N44">
+        <v>120.81</v>
+      </c>
+      <c r="O44">
+        <v>24</v>
+      </c>
+      <c r="P44">
+        <v>11.72</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>8.3599999999999852</v>
+      </c>
+      <c r="R44">
+        <v>216.23</v>
+      </c>
+      <c r="S44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>5.05</v>
+      </c>
+      <c r="E45">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="F45">
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <v>11.22</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>11.909999999999995</v>
+      </c>
+      <c r="I45">
+        <v>198.88</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M45">
+        <v>54.12</v>
+      </c>
+      <c r="N45">
+        <v>216.49</v>
+      </c>
+      <c r="O45">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="P45">
+        <v>10.39</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>8.6700000000000159</v>
+      </c>
+      <c r="R45">
+        <v>321.69</v>
+      </c>
+      <c r="S45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D46">
+        <v>4.93</v>
+      </c>
+      <c r="E46">
+        <v>173.13</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>12.81</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="I46">
+        <v>238.56</v>
+      </c>
+      <c r="J46" t="s">
+        <v>205</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M46">
+        <v>49.21</v>
+      </c>
+      <c r="N46">
+        <v>198.08</v>
+      </c>
+      <c r="O46">
+        <v>40</v>
+      </c>
+      <c r="P46">
+        <v>20.09</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>-2.6499999999999773</v>
+      </c>
+      <c r="R46">
+        <v>304.73</v>
+      </c>
+      <c r="S46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D47">
+        <v>2.1</v>
+      </c>
+      <c r="E47">
+        <v>166.61</v>
+      </c>
+      <c r="F47">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>13.85</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>6.9199999999999822</v>
+      </c>
+      <c r="I47">
+        <v>221.48</v>
+      </c>
+      <c r="J47" t="s">
+        <v>209</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M47">
+        <v>43.86</v>
+      </c>
+      <c r="N47">
+        <v>145.29</v>
+      </c>
+      <c r="O47">
+        <v>24</v>
+      </c>
+      <c r="P47">
+        <v>12.57</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>7.0900000000000318</v>
+      </c>
+      <c r="R47">
+        <v>232.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>3.12</v>
+      </c>
+      <c r="E48">
+        <v>138.46</v>
+      </c>
+      <c r="F48">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>15.05</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>7.0499999999999936</v>
+      </c>
+      <c r="I48">
+        <v>195.68</v>
+      </c>
+      <c r="J48" t="s">
+        <v>216</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="M48">
+        <v>50.61</v>
+      </c>
+      <c r="N48">
+        <v>162.86000000000001</v>
+      </c>
+      <c r="O48">
+        <v>32</v>
+      </c>
+      <c r="P48">
+        <v>10.23</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ref="Q48" si="5">-M48-N48-O48-P48+R48</f>
+        <v>7.879999999999967</v>
+      </c>
+      <c r="R48">
+        <v>263.58</v>
+      </c>
+      <c r="S48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>1.44</v>
+      </c>
+      <c r="E49">
+        <v>155.13</v>
+      </c>
+      <c r="F49">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <v>11.99</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>7.1399999999999952</v>
+      </c>
+      <c r="I49">
+        <v>199.7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>215</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M49">
+        <v>48.5</v>
+      </c>
+      <c r="N49">
+        <v>172.99</v>
+      </c>
+      <c r="O49">
+        <v>32</v>
+      </c>
+      <c r="P49">
+        <v>8.69</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>7.2699999999999818</v>
+      </c>
+      <c r="R49">
+        <v>269.45</v>
+      </c>
+      <c r="S49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>212</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>54.5</v>
+      </c>
+      <c r="N50">
+        <v>172.74</v>
+      </c>
+      <c r="O50">
+        <v>40</v>
+      </c>
+      <c r="P50">
+        <v>13.27</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>7.1000000000000227</v>
+      </c>
+      <c r="R50">
+        <v>287.61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D51">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E51">
+        <v>84.01</v>
+      </c>
+      <c r="F51">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <v>13.88</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>10.690000000000007</v>
+      </c>
+      <c r="I51">
+        <v>135.09</v>
+      </c>
+      <c r="J51" t="s">
+        <v>214</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="M51">
+        <v>50.07</v>
+      </c>
+      <c r="N51">
+        <v>93.35</v>
+      </c>
+      <c r="O51">
+        <v>24</v>
+      </c>
+      <c r="P51">
+        <v>11.81</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>7.0300000000000011</v>
+      </c>
+      <c r="R51">
+        <v>186.26</v>
+      </c>
+      <c r="S51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f>AVERAGE(B42:B51)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C52" s="7">
+        <f>AVERAGE(C42:C51)</f>
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="K52">
+        <f>AVERAGE(K42:K51)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L52" s="7">
+        <f>AVERAGE(L42:L51)</f>
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C63" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/Results_Overview.xlsx
+++ b/Results/Results_Overview.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/fv124_ic_ac_uk/Documents/Documents/Individual Project Report Version/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2330" documentId="8_{03B9790A-DFA5-4D81-B333-A16BB486151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68846220-61F5-4FC6-873D-184B79BCD432}"/>
+  <xr:revisionPtr revIDLastSave="3214" documentId="8_{03B9790A-DFA5-4D81-B333-A16BB486151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F969B19-0D06-4E96-885C-DBAB6540A145}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{844A5098-A0C8-452D-A786-0F1B8095EFE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{844A5098-A0C8-452D-A786-0F1B8095EFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactile Main Results" sheetId="1" r:id="rId1"/>
     <sheet name="Tactile Ablation Study Results" sheetId="2" r:id="rId2"/>
     <sheet name="Tactile Rank Tests" sheetId="3" r:id="rId3"/>
     <sheet name="VLA" sheetId="4" r:id="rId4"/>
-    <sheet name="Pipeline Test" sheetId="5" r:id="rId5"/>
+    <sheet name="LLM" sheetId="6" r:id="rId5"/>
+    <sheet name="Pipeline Test" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="285">
   <si>
     <t>Model</t>
   </si>
@@ -496,9 +522,6 @@
   </si>
   <si>
     <t>No model Collapsing in case of resnet, but there is model collapsing in case of conv or vgg</t>
-  </si>
-  <si>
-    <t>However when conv connected to transformer it works again, so could be because transformer introduces skipp connection again</t>
   </si>
   <si>
     <r>
@@ -680,12 +703,6 @@
     <t>a lime was a lemon, strawberry an apple</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana bad hoover,  </t>
-  </si>
-  <si>
-    <t>banana not well located</t>
-  </si>
-  <si>
     <t>Carrot, Patato, Lemon, Pepper, Corn</t>
   </si>
   <si>
@@ -714,6 +731,219 @@
   </si>
   <si>
     <t>lime not accurate</t>
+  </si>
+  <si>
+    <t>Mention p-values on pretrained results but not on finetuned, as 7 objects are generaly not reliable for taking conclusions. Therefore, results after finetuning are merely judged based on the ability of keeping ranks between objects and holding linear trends (r²)</t>
+  </si>
+  <si>
+    <t>Normality violated in some cases --&gt; wilcoxon rank test most optimal</t>
+  </si>
+  <si>
+    <t>78.70 +- 6.16</t>
+  </si>
+  <si>
+    <t>69.20 +-- 5.69</t>
+  </si>
+  <si>
+    <t>p&lt;0.01</t>
+  </si>
+  <si>
+    <t>64.20 +- 0.74</t>
+  </si>
+  <si>
+    <t>63.68 +- 0.60</t>
+  </si>
+  <si>
+    <t>p = 0.0111</t>
+  </si>
+  <si>
+    <t>72.10+- 7.14</t>
+  </si>
+  <si>
+    <t>65.17+-3.76</t>
+  </si>
+  <si>
+    <t>Hard vs medium, u = 288, p &lt; 0.01</t>
+  </si>
+  <si>
+    <t>Medium vs soft, u = 362, p&lt; 0.01</t>
+  </si>
+  <si>
+    <t>Hard vs soft , u = 368, p&lt; 0.01</t>
+  </si>
+  <si>
+    <t>74.02 +- 7.61</t>
+  </si>
+  <si>
+    <t>68 +- 4.27</t>
+  </si>
+  <si>
+    <t>63 +- 1.73</t>
+  </si>
+  <si>
+    <t>u = 285</t>
+  </si>
+  <si>
+    <t>u = 343</t>
+  </si>
+  <si>
+    <t>p = 0.0018</t>
+  </si>
+  <si>
+    <t>u = 308</t>
+  </si>
+  <si>
+    <t>64.59 +- 2.40</t>
+  </si>
+  <si>
+    <t>Hard vs medium, u = 299, p &lt; 0.01</t>
+  </si>
+  <si>
+    <t>63.74 +- 0.93</t>
+  </si>
+  <si>
+    <t>61.79 +- 2.91</t>
+  </si>
+  <si>
+    <t>Hard vs soft , u = 373, p&lt; 0.01</t>
+  </si>
+  <si>
+    <t>Medium vs soft, u = 359, p&lt; 0.01</t>
+  </si>
+  <si>
+    <t>78.76 +- 4.46</t>
+  </si>
+  <si>
+    <t>72.59 +- 3.19</t>
+  </si>
+  <si>
+    <t>u = 362</t>
+  </si>
+  <si>
+    <t>p &lt; 0.01</t>
+  </si>
+  <si>
+    <t>86.33 +- 10.61</t>
+  </si>
+  <si>
+    <t>78.84+-4.23</t>
+  </si>
+  <si>
+    <t>u = 289</t>
+  </si>
+  <si>
+    <t>75.93 +- 6.76</t>
+  </si>
+  <si>
+    <t>70.12 +- 5.78</t>
+  </si>
+  <si>
+    <t>u = 0.69</t>
+  </si>
+  <si>
+    <t>Medium vs soft, u = 324, p&lt; 0.01</t>
+  </si>
+  <si>
+    <t>Hard vs soft , u = 378, p&lt; 0.01</t>
+  </si>
+  <si>
+    <t>Hard vs medium, u = 256, p = 0.067</t>
+  </si>
+  <si>
+    <t>74.90 +- 4.69</t>
+  </si>
+  <si>
+    <t>72.31 +- 5.28</t>
+  </si>
+  <si>
+    <t>66.41 +- 2.58</t>
+  </si>
+  <si>
+    <t>68.20 +- 3.09</t>
+  </si>
+  <si>
+    <t>69.19 +- 4.28</t>
+  </si>
+  <si>
+    <t>64.86 +- 1.46</t>
+  </si>
+  <si>
+    <t>Hard vs medium, u = 182, p = 0.692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>t value</t>
+  </si>
+  <si>
+    <t>p value</t>
+  </si>
+  <si>
+    <t>Equal to 5</t>
+  </si>
+  <si>
+    <t>independent t-test (assumed large sample size, and also following levene's test we assumed unequal variances)</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Clarity and coherence</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Report bounds mean value (95% CI) and then t-test results</t>
+  </si>
+  <si>
+    <t>Attention for multiple comparisons in testing if times are different</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>25th percentile</t>
+  </si>
+  <si>
+    <t>75th percentile</t>
+  </si>
+  <si>
+    <t>Hard vs soft , u = 336, p&lt; 0.01</t>
+  </si>
+  <si>
+    <t>Medium vs soft = 328, p&lt;0.01</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>report mean +- std</t>
+  </si>
+  <si>
+    <t>IQR 0.25</t>
+  </si>
+  <si>
+    <t>IQR 0.75</t>
+  </si>
+  <si>
+    <t>Collapse!</t>
+  </si>
+  <si>
+    <t>Wilcoxon test</t>
+  </si>
+  <si>
+    <t>Model1</t>
+  </si>
+  <si>
+    <t>Model2</t>
   </si>
 </sst>
 </file>
@@ -757,7 +987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,11 +995,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -779,10 +1035,11 @@
     </xf>
     <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,6 +1055,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Config"/>
+      <sheetName val="Wilcoxon Table"/>
+      <sheetName val="Mann Table"/>
+      <sheetName val="Runs Table"/>
+      <sheetName val="KS Table"/>
+      <sheetName val="KS2 Table"/>
+      <sheetName val="Lil Table"/>
+      <sheetName val="AD Table"/>
+      <sheetName val="AD2 Table"/>
+      <sheetName val="SW Table"/>
+      <sheetName val="Stud. Q Table"/>
+      <sheetName val="Stud. Q Table 2"/>
+      <sheetName val="Sp Rho Table"/>
+      <sheetName val="Ken Tau Table"/>
+      <sheetName val="Durbin Table"/>
+      <sheetName val="Dunnett Table"/>
+      <sheetName val="Dunnett 1"/>
+      <sheetName val="Kendall Tc"/>
+      <sheetName val="Kendall u"/>
+      <sheetName val="Page Table"/>
+      <sheetName val="Prime"/>
+      <sheetName val="MSSD"/>
+      <sheetName val="Dict"/>
+      <sheetName val="ADict"/>
+      <sheetName val="L4 2"/>
+      <sheetName val="L8 2"/>
+      <sheetName val="L8 42"/>
+      <sheetName val="L9 3"/>
+      <sheetName val="L12 2"/>
+      <sheetName val="L16 2"/>
+      <sheetName val="L16 4"/>
+      <sheetName val="L16 42a"/>
+      <sheetName val="L18 23"/>
+      <sheetName val="L18 63"/>
+      <sheetName val="L25 5"/>
+      <sheetName val="L27 3"/>
+      <sheetName val="L32 2"/>
+      <sheetName val="L32 24"/>
+      <sheetName val="L36 23a"/>
+      <sheetName val="L36 23b"/>
+      <sheetName val="L50 25"/>
+      <sheetName val="L54 23"/>
+      <sheetName val="L64 4"/>
+      <sheetName val="T2"/>
+      <sheetName val="T3"/>
+      <sheetName val="T4"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="SWTEST"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,8 +1492,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,10 +1756,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,8 +1823,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="F3">
+        <v>7.43</v>
       </c>
       <c r="G3">
         <v>0.93</v>
@@ -1943,17 +2309,23 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
+      <c r="D27">
+        <v>3</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>150</v>
+      <c r="F27">
+        <v>27.978999999999999</v>
+      </c>
+      <c r="G27">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H27">
+        <v>-0.03</v>
       </c>
       <c r="I27" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2040,9 +2412,40 @@
         <v>51</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>20.99</v>
+      </c>
+      <c r="G31">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H31">
+        <v>-0.03</v>
+      </c>
+    </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2458,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2402,6 +2805,634 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" cm="1">
+        <f t="array" aca="1" ref="A42" ca="1">A42:I59</f>
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" cm="1">
+        <f t="array" aca="1" ref="A43" ca="1">A43:I59</f>
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" t="s">
+        <v>273</v>
+      </c>
+      <c r="H43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>79.88</v>
+      </c>
+      <c r="C44">
+        <v>78.86</v>
+      </c>
+      <c r="D44">
+        <v>81.03</v>
+      </c>
+      <c r="E44" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44">
+        <v>79.47</v>
+      </c>
+      <c r="G44">
+        <v>72.89</v>
+      </c>
+      <c r="H44">
+        <v>84.59</v>
+      </c>
+      <c r="I44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="C45">
+        <v>71.78</v>
+      </c>
+      <c r="D45">
+        <v>74.3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45">
+        <v>67.75</v>
+      </c>
+      <c r="G45">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H45">
+        <v>72.78</v>
+      </c>
+      <c r="I45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>89.09</v>
+      </c>
+      <c r="C47">
+        <v>75.84</v>
+      </c>
+      <c r="D47">
+        <v>96.36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47">
+        <v>64.13</v>
+      </c>
+      <c r="G47">
+        <v>63.78</v>
+      </c>
+      <c r="H47">
+        <v>64.64</v>
+      </c>
+      <c r="I47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="C48">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D48">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48">
+        <v>63.84</v>
+      </c>
+      <c r="G48">
+        <v>63.73</v>
+      </c>
+      <c r="H48">
+        <v>63.93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>77.5</v>
+      </c>
+      <c r="C50">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="D50">
+        <v>81.47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50">
+        <v>71.02</v>
+      </c>
+      <c r="G50">
+        <v>65.69</v>
+      </c>
+      <c r="H50">
+        <v>79.91</v>
+      </c>
+      <c r="I50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="C51">
+        <v>65.28</v>
+      </c>
+      <c r="D51">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51">
+        <v>64.14</v>
+      </c>
+      <c r="G51">
+        <v>63.13</v>
+      </c>
+      <c r="H51">
+        <v>65.98</v>
+      </c>
+      <c r="I51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>75.22</v>
+      </c>
+      <c r="C53">
+        <v>71.25</v>
+      </c>
+      <c r="D53">
+        <v>79.44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53">
+        <v>72.63</v>
+      </c>
+      <c r="G53">
+        <v>67.5</v>
+      </c>
+      <c r="H53">
+        <v>82.53</v>
+      </c>
+      <c r="I53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>71.86</v>
+      </c>
+      <c r="C54">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="D54">
+        <v>77.59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54">
+        <v>66.87</v>
+      </c>
+      <c r="G54">
+        <v>66.31</v>
+      </c>
+      <c r="H54">
+        <v>67.62</v>
+      </c>
+      <c r="I54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>65.95</v>
+      </c>
+      <c r="C55">
+        <v>64.55</v>
+      </c>
+      <c r="D55">
+        <v>67.61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55">
+        <v>63.05</v>
+      </c>
+      <c r="G55">
+        <v>62.85</v>
+      </c>
+      <c r="H55">
+        <v>63.89</v>
+      </c>
+      <c r="I55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>67.91</v>
+      </c>
+      <c r="C57">
+        <v>66.13</v>
+      </c>
+      <c r="D57">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="E57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57">
+        <v>65.25</v>
+      </c>
+      <c r="G57">
+        <v>64.02</v>
+      </c>
+      <c r="H57">
+        <v>65.92</v>
+      </c>
+      <c r="I57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>68.06</v>
+      </c>
+      <c r="C58">
+        <v>65.489999999999995</v>
+      </c>
+      <c r="D58">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E58" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58">
+        <v>63.54</v>
+      </c>
+      <c r="G58">
+        <v>63.39</v>
+      </c>
+      <c r="H58">
+        <v>64.12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59">
+        <v>64.72</v>
+      </c>
+      <c r="C59">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="D59">
+        <v>65.819999999999993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59">
+        <v>61.73</v>
+      </c>
+      <c r="G59">
+        <v>60.97</v>
+      </c>
+      <c r="H59">
+        <v>62.15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2412,28 +3443,30 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.21875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2444,7 +3477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -2482,7 +3515,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2519,8 +3552,11 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2557,8 +3593,11 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2593,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -2631,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -2668,10 +3707,21 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O7">
+        <f>_xlfn.T.TEST(E3:E42,N3:N4,1,3)</f>
+        <v>7.9202016773399914E-3</v>
+      </c>
+      <c r="P7">
+        <f>_xlfn.T.TEST(K3:K42,N3:N4,1,3)</f>
+        <v>0.18605371234572515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8">
         <v>0.94</v>
@@ -2703,8 +3753,16 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <f>TINV(O7,40)</f>
+        <v>2.7956125061144537</v>
+      </c>
+      <c r="P8">
+        <f>TINV(P7,40)</f>
+        <v>1.3454630087198578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -2742,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -2780,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2818,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2856,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -2894,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2929,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2964,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3512,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -3547,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -3582,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -3620,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -3655,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -3690,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -3713,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -3751,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -3779,8 +4837,11 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -3815,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3850,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -3899,7 +4960,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <f xml:space="preserve"> _xlfn.CONFIDENCE.T(0.05, _xlfn.STDEV.S(B3:B42), COUNT(B3:B42))</f>
@@ -3945,8 +5006,11 @@
         <f t="shared" si="8"/>
         <v>0.11565177796862841</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>130</v>
       </c>
@@ -3995,7 +5059,7 @@
         <v>0.73434822203137151</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
@@ -4044,7 +5108,7 @@
         <v>0.96565177796862844</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>133</v>
       </c>
@@ -4091,6 +5155,103 @@
       <c r="L47" s="3">
         <f t="shared" si="11"/>
         <v>0.35707142142714249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B57" cm="1">
+        <f t="array" ref="B57">[1]!SWTEST(B3:B42)</f>
+        <v>2.1836073615943974E-8</v>
+      </c>
+      <c r="C57" cm="1">
+        <f t="array" ref="C57">[1]!SWTEST(C3:C42)</f>
+        <v>2.1607613092142541E-2</v>
+      </c>
+      <c r="D57" cm="1">
+        <f t="array" ref="D57">[1]!SWTEST(D3:D42)</f>
+        <v>5.4090466054601549E-4</v>
+      </c>
+      <c r="E57" cm="1">
+        <f t="array" ref="E57">[1]!SWTEST(E3:E42)</f>
+        <v>8.4297351732462222E-2</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">[1]!SWTEST(F3:F42)</f>
+        <v>3.7406744368695399E-12</v>
+      </c>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">[1]!SWTEST(G3:G42)</f>
+        <v>6.9091782894567966E-2</v>
+      </c>
+      <c r="H57" cm="1">
+        <f t="array" ref="H57">[1]!SWTEST(H3:H42)</f>
+        <v>5.0971136533739525E-8</v>
+      </c>
+      <c r="I57" cm="1">
+        <f t="array" ref="I57">[1]!SWTEST(I3:I42)</f>
+        <v>3.3512163067630052E-2</v>
+      </c>
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">[1]!SWTEST(J3:J42)</f>
+        <v>0.62965544407270491</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">[1]!SWTEST(K3:K42)</f>
+        <v>5.5371089525213746E-2</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">[1]!SWTEST(L3:L42)</f>
+        <v>2.64204214062147E-11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61">
+        <f>_xlfn.T.TEST(B3:B42,G3:G42,2, 3)</f>
+        <v>9.0677789183096756E-16</v>
+      </c>
+      <c r="C61">
+        <f>_xlfn.T.TEST(C3:C42,H3:H42,2, 3)</f>
+        <v>3.5778246053654838E-11</v>
+      </c>
+      <c r="E61">
+        <f>_xlfn.T.TEST(E3:E42,K3:K42,2, 3)</f>
+        <v>0.17272489282711442</v>
+      </c>
+      <c r="F61">
+        <f>_xlfn.T.TEST(F3:F42,K3:K42,2, 3)</f>
+        <v>1.4932811495507082E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62:C62" si="12">TINV(B61, 40)</f>
+        <v>12.837450592843494</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="12"/>
+        <v>9.009373041000396</v>
+      </c>
+      <c r="E62">
+        <f>TINV(E61, 40)</f>
+        <v>1.3883152398155629</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4099,14 +5260,1538 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DFE404-9C97-4838-A3A1-526C395627D4}">
+  <dimension ref="A1:F108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102">
+        <f>AVERAGE(B2:B101)</f>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C2:C101)</f>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D102">
+        <f>AVERAGE(D2:D101)</f>
+        <v>4.92</v>
+      </c>
+      <c r="F102" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103">
+        <f>_xlfn.STDEV.P(B2:B101)</f>
+        <v>0.59489494870943394</v>
+      </c>
+      <c r="C103">
+        <f>_xlfn.STDEV.P(C2:C101)</f>
+        <v>0.23748684174075843</v>
+      </c>
+      <c r="D103">
+        <f>_xlfn.STDEV.P(D2:D101)</f>
+        <v>0.43999999999999923</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <f>_xlfn.STDEV.S(D3:D102)</f>
+        <v>0.44214280795492134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106">
+        <f>MEDIAN(B2:B101)</f>
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:D106" si="0">MEDIAN(C2:C101)</f>
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107" si="1">_xlfn.PERCENTILE.EXC(B2:B101, 0.25)</f>
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <f>_xlfn.PERCENTILE.EXC(C2:C101, 0.25)</f>
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <f>_xlfn.PERCENTILE.EXC(D2:D101, 0.25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>280</v>
+      </c>
+      <c r="B108">
+        <f>_xlfn.PERCENTILE.EXC(B3:B102, 0.75)</f>
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108:D108" si="2">_xlfn.PERCENTILE.EXC(C3:C102, 0.75)</f>
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C2A21-9DF5-4E29-8956-B6577536C5C0}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4115,86 +6800,87 @@
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="P2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" t="s">
         <v>155</v>
       </c>
-      <c r="E2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="R2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" t="s">
         <v>158</v>
       </c>
-      <c r="G2" t="s">
+      <c r="T2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" t="s">
         <v>159</v>
       </c>
-      <c r="H2" t="s">
+      <c r="V2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>161</v>
-      </c>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" t="s">
-        <v>160</v>
-      </c>
-      <c r="S2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>162</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4208,46 +6894,46 @@
       <c r="E3">
         <v>57.18</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8.01</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>6.46</v>
       </c>
-      <c r="H3">
-        <f>I3-D3-E3-F3-G3</f>
+      <c r="J3">
+        <f>L3-D3-E3-G3-I3</f>
         <v>11.199999999999996</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>84.33</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>66.959999999999994</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>36.270000000000003</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>8</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>6.96</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3" si="0">-M3-N3-O3-P3+R3</f>
+      <c r="T3">
+        <f t="shared" ref="T3" si="0">-P3-Q3-R3-S3+U3</f>
         <v>10.570000000000007</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>128.76</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4257,40 +6943,40 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H51" si="1">I4-D4-E4-F4-G4</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J56" si="1">L4-D4-E4-G4-I4</f>
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>44</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>44.78</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>8</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>6.47</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q51" si="2">-M4-N4-O4-P4+R4</f>
+      <c r="T4">
+        <f t="shared" ref="T4:T56" si="2">-P4-Q4-R4-S4+U4</f>
         <v>6.4899999999999949</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>109.74</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4306,46 +6992,46 @@
       <c r="E5">
         <v>53.23</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.01</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>9.36</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <f t="shared" si="1"/>
         <v>10.960000000000008</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>85.34</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>44.45</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>32.1</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>6.39</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <f t="shared" si="2"/>
         <v>6.3799999999999812</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>97.32</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -4361,46 +7047,46 @@
       <c r="E6">
         <v>30.02</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8.01</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>8.67</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <f t="shared" si="1"/>
         <v>8.4899999999999967</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>57.36</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>39.979999999999997</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>37.68</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>8</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>5.42</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <f t="shared" si="2"/>
         <v>6.269999999999996</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>97.35</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -4416,46 +7102,46 @@
       <c r="E7">
         <v>48.17</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>6.76</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>8.0899999999999945</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>72.03</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>40.81</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>43.5</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>8</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>6.59</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <f t="shared" si="2"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>105.26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -4471,46 +7157,46 @@
       <c r="E8">
         <v>52.17</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>9.31</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>8.2099999999999955</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>79.88</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>40.82</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>45.11</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>8</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>9.48</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <f t="shared" si="2"/>
         <v>6.0999999999999943</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>109.51</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -4526,46 +7212,46 @@
       <c r="E9">
         <v>41.46</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>15.02</v>
       </c>
-      <c r="H9">
-        <f t="shared" ref="H9" si="3">I9-D9-E9-F9-G9</f>
+      <c r="J9">
+        <f t="shared" ref="J9" si="3">L9-D9-E9-G9-I9</f>
         <v>7.0999999999999979</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>74.02</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>48.27</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>25.89</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>8</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>12.94</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <f t="shared" si="2"/>
         <v>8.8700000000000045</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>103.97</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -4581,46 +7267,46 @@
       <c r="E10">
         <v>25.11</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>10.36</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>7.7600000000000051</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>52.59</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>62.73</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>17.46</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>8</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>6.75</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <f t="shared" si="2"/>
         <v>7.1800000000000068</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>102.12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4630,22 +7316,22 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K11">
+      <c r="M11" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="L11" s="6">
+      <c r="O11" s="6">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4659,46 +7345,46 @@
       <c r="E12">
         <v>37.21</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>6.63</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <f t="shared" si="1"/>
         <v>7.9500000000000055</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>61.34</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>41.33</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>37.94</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>8</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>15.04</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <f t="shared" si="2"/>
         <v>6.3700000000000045</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>108.68</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
         <v>0.8</v>
@@ -4707,1718 +7393,2510 @@
         <f xml:space="preserve"> AVERAGE(C3:C12)</f>
         <v>0.8</v>
       </c>
-      <c r="D13" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13">
-        <f>AVERAGE(K3:K12)</f>
+      <c r="D13">
+        <f>AVERAGE(D3:D12)</f>
+        <v>1.9974999999999998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:L13" si="4">AVERAGE(E3:E12)</f>
+        <v>43.068750000000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>8.0037500000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>9.0712499999999991</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>7.7511111111111104</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>70.861250000000013</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(N3:N12)</f>
         <v>0.9</v>
       </c>
-      <c r="L13" s="7">
-        <f>AVERAGE(L3:L12)</f>
+      <c r="O13">
+        <f>AVERAGE(O3:O12)</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16">
+      <c r="P13">
+        <f t="shared" ref="P13:U13" si="5">AVERAGE(P3:P12)</f>
+        <v>47.705555555555549</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>35.636666666666663</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>8.448888888888888</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>7.1766666666666659</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>106.96777777777778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>_xlfn.STDEV.P(D3:D12)</f>
+        <v>0.81313821088422644</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:L14" si="6">_xlfn.STDEV.P(E3:E12)</f>
+        <v>10.845122679688764</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>4.841229182759167E-3</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>2.6332035503356006</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>3.047886132476608</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>11.675291685328373</v>
+      </c>
+      <c r="P14">
+        <f>_xlfn.STDEV.P(P3:P12)</f>
+        <v>9.5242813798453696</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:U14" si="7">_xlfn.STDEV.P(Q3:Q12)</f>
+        <v>8.7111359126631278</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>3.1721652067263837</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>1.444806792158271</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>8.900475365304656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L15">
+        <f>D13+E13+G13+I13+J13</f>
+        <v>69.892361111111114</v>
+      </c>
+      <c r="U15">
+        <f>SUM(P13:T13)</f>
+        <v>106.96777777777775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
         <v>0.5</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>1.64</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="H17">
+        <f>I17/G17*16</f>
         <v>9.2200000000000006</v>
       </c>
-      <c r="H16">
+      <c r="I17">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>82.7</v>
       </c>
-      <c r="I16">
+      <c r="L17">
         <v>109.56</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>44.61</v>
       </c>
-      <c r="N16">
+      <c r="Q17">
         <v>62.06</v>
       </c>
-      <c r="O16">
+      <c r="R17">
         <v>16</v>
       </c>
-      <c r="P16">
+      <c r="S17">
         <v>11.36</v>
       </c>
-      <c r="Q16">
+      <c r="T17">
         <f t="shared" si="2"/>
         <v>6.039999999999992</v>
       </c>
-      <c r="R16">
+      <c r="U17">
         <v>140.07</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>1.5</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>92.82</v>
       </c>
-      <c r="F17">
+      <c r="F18">
+        <f>E18+(2-G18/8)</f>
+        <v>92.82</v>
+      </c>
+      <c r="G18">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="H18">
+        <f t="shared" ref="H18:H26" si="8">I18/G18*16</f>
         <v>11.03</v>
       </c>
-      <c r="H17">
+      <c r="I18">
+        <v>11.03</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>6.0600000000000041</v>
       </c>
-      <c r="I17">
+      <c r="L18">
         <v>127.41</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>49.1</v>
       </c>
-      <c r="N17">
+      <c r="Q18">
         <v>73.069999999999993</v>
       </c>
-      <c r="O17">
+      <c r="R18">
         <v>16</v>
       </c>
-      <c r="P17">
+      <c r="S18">
         <v>11.76</v>
       </c>
-      <c r="Q17">
+      <c r="T18">
         <f t="shared" si="2"/>
         <v>5.6300000000000239</v>
       </c>
-      <c r="R17">
+      <c r="U18">
         <v>155.56</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>118</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>3.65</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>84.21</v>
       </c>
-      <c r="F18">
+      <c r="F19">
+        <f t="shared" ref="F19:F26" si="9">E19+(2-G19/8)</f>
+        <v>84.21</v>
+      </c>
+      <c r="G19">
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="H19">
+        <f t="shared" si="8"/>
         <v>10.78</v>
       </c>
-      <c r="H18">
+      <c r="I19">
+        <v>10.78</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>8.94</v>
       </c>
-      <c r="I18">
+      <c r="L19">
         <v>123.58</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>48.65</v>
       </c>
-      <c r="N18">
+      <c r="Q19">
         <v>57.73</v>
       </c>
-      <c r="O18">
+      <c r="R19">
         <v>16</v>
       </c>
-      <c r="P18">
+      <c r="S19">
         <v>11.11</v>
       </c>
-      <c r="Q18">
+      <c r="T19">
         <f t="shared" si="2"/>
         <v>6.6399999999999864</v>
       </c>
-      <c r="R18">
+      <c r="U19">
         <v>140.13</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>115</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>3.59</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>98.26</v>
       </c>
-      <c r="F19">
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>98.26</v>
+      </c>
+      <c r="G20">
         <v>16</v>
       </c>
-      <c r="G19">
+      <c r="H20">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="H19">
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>6.5399999999999778</v>
       </c>
-      <c r="I19">
+      <c r="L20">
         <v>135.38999999999999</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>50.77</v>
       </c>
-      <c r="N19">
+      <c r="Q20">
         <v>93.42</v>
       </c>
-      <c r="O19">
+      <c r="R20">
         <v>16</v>
       </c>
-      <c r="P19">
+      <c r="S20">
         <v>9.42</v>
       </c>
-      <c r="Q19">
+      <c r="T20">
         <f t="shared" si="2"/>
         <v>8.1900000000000261</v>
       </c>
-      <c r="R19">
+      <c r="U20">
         <v>177.8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>124</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>1.32</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>75.87</v>
       </c>
-      <c r="F20">
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>75.87</v>
+      </c>
+      <c r="G21">
         <v>16</v>
       </c>
-      <c r="G20">
+      <c r="H21">
+        <f t="shared" si="8"/>
         <v>9.27</v>
       </c>
-      <c r="H20">
+      <c r="I21">
+        <v>9.27</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>6.0500000000000078</v>
       </c>
-      <c r="I20">
+      <c r="L21">
         <v>108.51</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>45.87</v>
       </c>
-      <c r="N20">
+      <c r="Q21">
         <v>77.7</v>
       </c>
-      <c r="O20">
+      <c r="R21">
         <v>16</v>
       </c>
-      <c r="P20">
+      <c r="S21">
         <v>39.64</v>
       </c>
-      <c r="Q20">
+      <c r="T21">
         <f t="shared" si="2"/>
         <v>5.8300000000000125</v>
       </c>
-      <c r="R20">
+      <c r="U21">
         <v>185.04</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>128</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="6">
         <v>0.5</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1.08</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>57.08</v>
       </c>
-      <c r="F21">
+      <c r="F22">
+        <f>E22+(2-G22/8)*E22</f>
+        <v>114.16</v>
+      </c>
+      <c r="G22">
         <v>8</v>
       </c>
-      <c r="G21">
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>15.5</v>
+      </c>
+      <c r="I22">
         <v>7.75</v>
       </c>
-      <c r="H21">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>5.7000000000000028</v>
       </c>
-      <c r="I21">
+      <c r="L22">
         <v>79.61</v>
       </c>
-      <c r="J21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21">
+      <c r="M22" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>51.85</v>
       </c>
-      <c r="N21">
+      <c r="Q22">
         <v>78.91</v>
       </c>
-      <c r="O21">
+      <c r="R22">
         <v>16</v>
       </c>
-      <c r="P21">
+      <c r="S22">
         <v>10.050000000000001</v>
       </c>
-      <c r="Q21">
+      <c r="T22">
         <f t="shared" si="2"/>
         <v>6.2800000000000011</v>
       </c>
-      <c r="R21">
+      <c r="U22">
         <v>163.09</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>119</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>3.05</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>69.849999999999994</v>
       </c>
-      <c r="F22">
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>69.849999999999994</v>
+      </c>
+      <c r="G23">
         <v>16</v>
       </c>
-      <c r="G22">
+      <c r="H23">
+        <f t="shared" si="8"/>
         <v>9.0399999999999991</v>
       </c>
-      <c r="H22">
+      <c r="I23">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>5.6100000000000065</v>
       </c>
-      <c r="I22">
+      <c r="L23">
         <v>103.55</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>45.57</v>
       </c>
-      <c r="N22">
+      <c r="Q23">
         <v>48.88</v>
       </c>
-      <c r="O22">
+      <c r="R23">
         <v>16</v>
       </c>
-      <c r="P22">
+      <c r="S23">
         <v>11.49</v>
       </c>
-      <c r="Q22">
+      <c r="T23">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="R22">
+      <c r="U23">
         <v>128.19</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>121</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>1.87</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>62.42</v>
       </c>
-      <c r="F23">
+      <c r="F24">
+        <f t="shared" si="9"/>
+        <v>62.42</v>
+      </c>
+      <c r="G24">
         <v>16</v>
       </c>
-      <c r="G23">
+      <c r="H24">
+        <f t="shared" si="8"/>
         <v>6.26</v>
       </c>
-      <c r="H23">
+      <c r="I24">
+        <v>6.26</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="1"/>
         <v>8.0399999999999974</v>
       </c>
-      <c r="I23">
+      <c r="L24">
         <v>94.59</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>48.86</v>
       </c>
-      <c r="N23">
+      <c r="Q24">
         <v>85.28</v>
       </c>
-      <c r="O23">
+      <c r="R24">
         <v>16</v>
       </c>
-      <c r="P23">
+      <c r="S24">
         <v>10.7</v>
       </c>
-      <c r="Q23">
+      <c r="T24">
         <f t="shared" si="2"/>
         <v>7.7600000000000193</v>
       </c>
-      <c r="R23">
+      <c r="U24">
         <v>168.6</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>125</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>199</v>
-      </c>
-      <c r="K24">
+      <c r="M25" t="s">
+        <v>198</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
-      <c r="L24" s="6">
+      <c r="O25" s="6">
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="T25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>1.5</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>84.21</v>
       </c>
-      <c r="F25">
+      <c r="F26">
+        <f t="shared" si="9"/>
+        <v>84.21</v>
+      </c>
+      <c r="G26">
         <v>16</v>
       </c>
-      <c r="G25">
+      <c r="H26">
+        <f t="shared" si="8"/>
         <v>9.27</v>
       </c>
-      <c r="H25">
+      <c r="I26">
+        <v>9.27</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>8.1700000000000124</v>
       </c>
-      <c r="I25">
+      <c r="L26">
         <v>119.15</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>47.47</v>
       </c>
-      <c r="N25">
+      <c r="Q26">
         <v>88.86</v>
       </c>
-      <c r="O25">
+      <c r="R26">
         <v>16</v>
       </c>
-      <c r="P25">
+      <c r="S26">
         <v>12.66</v>
       </c>
-      <c r="Q25">
+      <c r="T26">
         <f t="shared" si="2"/>
         <v>9.620000000000033</v>
       </c>
-      <c r="R25">
+      <c r="U26">
         <v>174.61</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="7">
-        <f>AVERAGE(B16:B25)</f>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>AVERAGE(B17:B26)</f>
         <v>0.7</v>
       </c>
-      <c r="C26" s="7">
-        <f>AVERAGE(C16:C25)</f>
+      <c r="C27">
+        <f>AVERAGE(C17:C26)</f>
         <v>0.8</v>
       </c>
-      <c r="K26">
-        <f>AVERAGE(K16:K25)</f>
+      <c r="D27">
+        <f>AVERAGE(D17:D26)</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:L27" si="10">AVERAGE(E17:E26)</f>
+        <v>78.089999999999989</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>85.224999999999994</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>15.111111111111111</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="10"/>
+        <v>10.152222222222223</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>9.2911111111111122</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="10"/>
+        <v>13.781000000000001</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>111.26111111111112</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGE(N17:N26)</f>
         <v>0.9</v>
       </c>
-      <c r="L26" s="7">
-        <f>AVERAGE(L16:L25)</f>
+      <c r="O27">
+        <f>AVERAGE(O17:O26)</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29">
+      <c r="P27">
+        <f t="shared" ref="P27:U27" si="11">AVERAGE(P17:P26)</f>
+        <v>48.083333333333336</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="11"/>
+        <v>73.989999999999995</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="11"/>
+        <v>14.243333333333332</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="11"/>
+        <v>6.2240000000000091</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="11"/>
+        <v>159.23222222222219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f>AVERAGE(D23:D26,D17:D21)</f>
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:L28" si="12">AVERAGE(E23:E26,E17:E21)</f>
+        <v>81.091428571428551</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="12"/>
+        <v>81.091428571428551</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="12"/>
+        <v>9.4837499999999988</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="12"/>
+        <v>9.4837499999999988</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGE(J23:J26,J18:J21)</f>
+        <v>6.1762499999999996</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="12"/>
+        <v>115.2175</v>
+      </c>
+      <c r="P28">
+        <f>_xlfn.STDEV.P(P17:P26)</f>
+        <v>2.285699503920458</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:U28" si="13">_xlfn.STDEV.P(Q17:Q26)</f>
+        <v>14.150568893157605</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="C29" s="6">
+      <c r="S28">
+        <f t="shared" si="13"/>
+        <v>9.0233068587223979</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="13"/>
+        <v>2.3919498322498383</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="13"/>
+        <v>18.436401057436058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>_xlfn.STDEV.P(D17:D21,D23:D26)</f>
+        <v>0.92872224050035523</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:I29" si="14">_xlfn.STDEV.P(E17:E21,E23:E26)</f>
+        <v>11.674303195567669</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="14"/>
+        <v>11.674303195567669</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="14"/>
+        <v>1.4628989840382081</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="14"/>
+        <v>1.4628989840382081</v>
+      </c>
+      <c r="J29">
+        <f>_xlfn.STDEV.P(J18:J21,J23:J26)</f>
+        <v>2.5912204532806533</v>
+      </c>
+      <c r="L29">
+        <f>SUM(D28:E28,G28:H28,J28)</f>
+        <v>115.01642857142855</v>
+      </c>
+      <c r="U29">
+        <f>SUM(P27:T27)</f>
+        <v>158.54066666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f>7/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>2.33</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>155.97</v>
       </c>
-      <c r="F29">
+      <c r="F32">
+        <f>E32/G32*24</f>
+        <v>155.97</v>
+      </c>
+      <c r="G32">
         <v>24</v>
       </c>
-      <c r="G29">
+      <c r="H32">
+        <f>I32/G32*24</f>
+        <v>13.560000000000002</v>
+      </c>
+      <c r="I32">
         <v>13.56</v>
       </c>
-      <c r="H29">
+      <c r="J32">
         <f t="shared" si="1"/>
         <v>6.5099999999999927</v>
       </c>
-      <c r="I29">
+      <c r="L32">
         <v>202.37</v>
       </c>
-      <c r="J29" t="s">
-        <v>188</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="6">
-        <v>1</v>
-      </c>
-      <c r="M29">
+      <c r="M32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>57.51</v>
       </c>
-      <c r="N29">
+      <c r="Q32">
         <v>113.93</v>
       </c>
-      <c r="O29">
+      <c r="R32">
         <v>24</v>
       </c>
-      <c r="P29">
+      <c r="S32">
         <v>13.28</v>
       </c>
-      <c r="Q29">
+      <c r="T32">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
-      <c r="R29">
+      <c r="U32">
         <v>217.47</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>1.74</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>51.56</v>
       </c>
-      <c r="F30">
+      <c r="F33">
+        <f t="shared" ref="F33:F41" si="15">E33/G33*24</f>
+        <v>77.34</v>
+      </c>
+      <c r="G33">
         <v>16</v>
       </c>
-      <c r="G30">
+      <c r="H33">
+        <f t="shared" ref="H33:H41" si="16">I33/G33*24</f>
+        <v>16.29</v>
+      </c>
+      <c r="I33">
         <v>10.86</v>
       </c>
-      <c r="H30">
+      <c r="J33">
         <f t="shared" si="1"/>
         <v>5.8500000000000085</v>
       </c>
-      <c r="I30">
+      <c r="L33">
         <v>86.01</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" s="6">
-        <v>1</v>
-      </c>
-      <c r="M30">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <v>50.68</v>
       </c>
-      <c r="N30">
+      <c r="Q33">
         <v>141.91</v>
       </c>
-      <c r="O30">
+      <c r="R33">
         <v>24</v>
       </c>
-      <c r="P30">
+      <c r="S33">
         <v>16.86</v>
       </c>
-      <c r="Q30">
+      <c r="T33">
         <f t="shared" si="2"/>
         <v>6.2900000000000205</v>
       </c>
-      <c r="R30">
+      <c r="U33">
         <v>239.74</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>1.45</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>149.4</v>
       </c>
-      <c r="F31">
+      <c r="F34">
+        <f t="shared" si="15"/>
+        <v>149.4</v>
+      </c>
+      <c r="G34">
         <v>24</v>
       </c>
-      <c r="G31">
+      <c r="H34">
+        <f t="shared" si="16"/>
         <v>12.29</v>
       </c>
-      <c r="H31">
+      <c r="I34">
+        <v>12.29</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="1"/>
         <v>5.8500000000000156</v>
       </c>
-      <c r="I31">
+      <c r="L34">
         <v>192.99</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" s="6">
-        <v>1</v>
-      </c>
-      <c r="M31">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <v>46.32</v>
       </c>
-      <c r="N31">
+      <c r="Q34">
         <v>97.31</v>
       </c>
-      <c r="O31">
+      <c r="R34">
         <v>24</v>
       </c>
-      <c r="P31">
+      <c r="S34">
         <v>12.9</v>
       </c>
-      <c r="Q31">
+      <c r="T34">
         <f t="shared" si="2"/>
         <v>5.8899999999999864</v>
       </c>
-      <c r="R31">
+      <c r="U34">
         <v>186.42</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>3.71</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>136.49</v>
       </c>
-      <c r="F32">
+      <c r="F35">
+        <f t="shared" si="15"/>
+        <v>136.49</v>
+      </c>
+      <c r="G35">
         <v>24</v>
       </c>
-      <c r="G32">
+      <c r="H35">
+        <f t="shared" si="16"/>
         <v>11.95</v>
       </c>
-      <c r="H32">
+      <c r="I35">
+        <v>11.95</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="1"/>
         <v>7.48999999999997</v>
       </c>
-      <c r="I32">
+      <c r="L35">
         <v>183.64</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" s="6">
-        <v>1</v>
-      </c>
-      <c r="M32">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>40.840000000000003</v>
       </c>
-      <c r="N32">
+      <c r="Q35">
         <v>97.81</v>
       </c>
-      <c r="O32">
+      <c r="R35">
         <v>24</v>
       </c>
-      <c r="P32">
+      <c r="S35">
         <v>14.69</v>
       </c>
-      <c r="Q32">
+      <c r="T35">
         <f t="shared" si="2"/>
         <v>6.5799999999999841</v>
       </c>
-      <c r="R32">
+      <c r="U35">
         <v>183.92</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>2.75</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>112.83</v>
       </c>
-      <c r="F33">
+      <c r="F36">
+        <f t="shared" si="15"/>
+        <v>112.83</v>
+      </c>
+      <c r="G36">
         <v>24</v>
       </c>
-      <c r="G33">
+      <c r="H36">
+        <f t="shared" si="16"/>
         <v>10.27</v>
       </c>
-      <c r="H33">
+      <c r="I36">
+        <v>10.27</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="1"/>
         <v>10.629999999999992</v>
       </c>
-      <c r="I33">
+      <c r="L36">
         <v>160.47999999999999</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6">
-        <v>1</v>
-      </c>
-      <c r="M33">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+      <c r="P36">
         <v>45.78</v>
       </c>
-      <c r="N33">
+      <c r="Q36">
         <v>124.49</v>
       </c>
-      <c r="O33">
+      <c r="R36">
         <v>24</v>
       </c>
-      <c r="P33">
+      <c r="S36">
         <v>11.57</v>
       </c>
-      <c r="Q33">
-        <f t="shared" ref="Q33" si="4">-M33-N33-O33-P33+R33</f>
+      <c r="T36">
+        <f t="shared" ref="T36" si="17">-P36-Q36-R36-S36+U36</f>
         <v>6.0900000000000318</v>
       </c>
-      <c r="R33">
+      <c r="U36">
         <v>211.93</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37">
         <v>0</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C37" s="6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J34" t="s">
-        <v>191</v>
-      </c>
-      <c r="K34">
+      <c r="M37" t="s">
+        <v>190</v>
+      </c>
+      <c r="N37">
         <v>0</v>
       </c>
-      <c r="L34" s="6">
+      <c r="O37" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q34">
+      <c r="T37">
         <v>0</v>
       </c>
-      <c r="S34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35">
+      <c r="V37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38">
         <v>0</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C38" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H35">
+      <c r="J38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35">
+      <c r="M38" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38">
         <v>0</v>
       </c>
-      <c r="L35" s="6">
+      <c r="O38" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M35">
+      <c r="P38">
         <v>44.16</v>
       </c>
-      <c r="N35">
+      <c r="Q38">
         <v>57.03</v>
       </c>
-      <c r="O35">
+      <c r="R38">
         <v>16</v>
       </c>
-      <c r="P35">
+      <c r="S38">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q35">
+      <c r="T38">
         <f t="shared" si="2"/>
         <v>8.2900000000000063</v>
       </c>
-      <c r="R35">
+      <c r="U38">
         <v>135.28</v>
       </c>
-      <c r="S35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="V38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>2.81</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>129.6</v>
       </c>
-      <c r="F36">
+      <c r="F39">
+        <f t="shared" si="15"/>
+        <v>129.6</v>
+      </c>
+      <c r="G39">
         <v>24</v>
       </c>
-      <c r="G36">
+      <c r="H39">
+        <f t="shared" si="16"/>
         <v>11.51</v>
       </c>
-      <c r="H36">
+      <c r="I39">
+        <v>11.51</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="1"/>
         <v>6.0100000000000104</v>
       </c>
-      <c r="I36">
+      <c r="L39">
         <v>173.93</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" s="6">
-        <v>1</v>
-      </c>
-      <c r="M36">
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" s="6">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>42.34</v>
       </c>
-      <c r="N36">
+      <c r="Q39">
         <v>73.290000000000006</v>
       </c>
-      <c r="O36">
+      <c r="R39">
         <v>24</v>
       </c>
-      <c r="P36">
+      <c r="S39">
         <v>12.88</v>
       </c>
-      <c r="Q36">
+      <c r="T39">
         <f t="shared" si="2"/>
         <v>5.9699999999999989</v>
       </c>
-      <c r="R36">
+      <c r="U39">
         <v>158.47999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>124.79</v>
       </c>
-      <c r="F37">
+      <c r="F40">
+        <f t="shared" si="15"/>
+        <v>124.79000000000002</v>
+      </c>
+      <c r="G40">
         <v>24</v>
       </c>
-      <c r="G37">
+      <c r="H40">
+        <f t="shared" si="16"/>
         <v>14.2</v>
       </c>
-      <c r="H37">
+      <c r="I40">
+        <v>14.2</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="1"/>
         <v>6.2100000000000115</v>
       </c>
-      <c r="I37">
+      <c r="L40">
         <v>171.65</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1</v>
-      </c>
-      <c r="M37">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" s="6">
+        <v>1</v>
+      </c>
+      <c r="P40">
         <v>41.86</v>
       </c>
-      <c r="N37">
+      <c r="Q40">
         <v>95.95</v>
       </c>
-      <c r="O37">
+      <c r="R40">
         <v>24</v>
       </c>
-      <c r="P37">
+      <c r="S40">
         <v>12.64</v>
       </c>
-      <c r="Q37">
+      <c r="T40">
         <f t="shared" si="2"/>
         <v>5.4900000000000091</v>
       </c>
-      <c r="R37">
+      <c r="U40">
         <v>179.94</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41">
         <v>0</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C41" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>2.83</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>82.88</v>
       </c>
-      <c r="F38">
+      <c r="F41">
+        <f t="shared" si="15"/>
+        <v>124.32</v>
+      </c>
+      <c r="G41">
         <v>16</v>
       </c>
-      <c r="G38">
+      <c r="H41">
+        <f t="shared" si="16"/>
+        <v>15.18</v>
+      </c>
+      <c r="I41">
         <v>10.119999999999999</v>
       </c>
-      <c r="H38">
+      <c r="J41">
         <f t="shared" si="1"/>
         <v>5.99</v>
       </c>
-      <c r="I38">
+      <c r="L41">
         <v>117.82</v>
       </c>
-      <c r="J38" t="s">
-        <v>190</v>
-      </c>
-      <c r="K38">
+      <c r="M41" t="s">
+        <v>189</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
-      <c r="L38" s="6">
+      <c r="O41" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M38">
+      <c r="P41">
         <v>43.58</v>
       </c>
-      <c r="N38">
+      <c r="Q41">
         <v>63.79</v>
       </c>
-      <c r="O38">
+      <c r="R41">
         <v>16</v>
       </c>
-      <c r="P38">
+      <c r="S41">
         <v>10.220000000000001</v>
       </c>
-      <c r="Q38">
+      <c r="T41">
         <f t="shared" si="2"/>
         <v>6.0200000000000102</v>
       </c>
-      <c r="R38">
+      <c r="U41">
         <v>139.61000000000001</v>
       </c>
-      <c r="S38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <f>AVERAGE(B29:B38)</f>
+      <c r="V41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f>AVERAGE(B32:B41)</f>
         <v>0.6</v>
       </c>
-      <c r="C39" s="7">
-        <f>AVERAGE(C29:C38)</f>
+      <c r="C42">
+        <f>AVERAGE(C32:C41)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="K39">
-        <f>AVERAGE(K29:K38)</f>
+      <c r="D42">
+        <f>AVERAGE(D32,D34:D40)</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:L42" si="18">AVERAGE(E32,E34:E40)</f>
+        <v>134.84666666666666</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="18"/>
+        <v>134.84666666666669</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="18"/>
+        <v>12.296666666666665</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="18"/>
+        <v>12.296666666666665</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="18"/>
+        <v>6.0999999999999988</v>
+      </c>
+      <c r="K42" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="18"/>
+        <v>180.84333333333336</v>
+      </c>
+      <c r="N42">
+        <f>AVERAGE(N32:N41)</f>
         <v>0.7</v>
       </c>
-      <c r="L39" s="7">
-        <f>AVERAGE(L29:L38)</f>
+      <c r="O42">
+        <f>AVERAGE(O32:O41)</f>
         <v>0.86666666666666681</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="P42">
+        <f t="shared" ref="P42:U42" si="19">AVERAGE(P32:P41)</f>
+        <v>45.896666666666668</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="19"/>
+        <v>96.167777777777758</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="19"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="19"/>
+        <v>12.759999999999998</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="19"/>
+        <v>5.9370000000000047</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="19"/>
+        <v>183.64333333333332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <f>_xlfn.STDEV.P(D32,D34:D40)</f>
+        <v>0.67267294347914031</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:L43" si="20">_xlfn.STDEV.P(E32,E34:E40)</f>
+        <v>14.572193459538637</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="20"/>
+        <v>14.572193459538415</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="20"/>
+        <v>1.2951919634642104</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="20"/>
+        <v>1.2951919634642006</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="20"/>
+        <v>2.9255963982945898</v>
+      </c>
+      <c r="K43" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="20"/>
+        <v>13.938777644478812</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43">
+        <f>AVERAGE(P32:P37,P39:P40)</f>
+        <v>46.47571428571429</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43:U43" si="21">AVERAGE(Q32:Q37,Q39:Q40)</f>
+        <v>106.38428571428571</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="21"/>
+        <v>13.545714285714284</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="21"/>
+        <v>5.6325000000000038</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="21"/>
+        <v>196.84285714285716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L44">
+        <f>SUM(D42:E42,G42:H42,J42)</f>
+        <v>179.82666666666665</v>
+      </c>
+      <c r="P44">
+        <f>_xlfn.STDEV.P(P32:P37,P39:P40)</f>
+        <v>5.4786595262054041</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ref="Q44:U44" si="22">_xlfn.STDEV.P(Q32:Q37,Q39:Q40)</f>
+        <v>20.725409427038315</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="22"/>
+        <v>1.6012660807075543</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="22"/>
+        <v>2.3233529112039775</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="22"/>
+        <v>25.428660272718052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <f>SUM(P43:T43)</f>
+        <v>196.0382142857143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>4.33</v>
       </c>
-      <c r="E42">
+      <c r="E47">
         <v>176.14</v>
       </c>
-      <c r="F42">
+      <c r="F47">
+        <f>E47/G47*40</f>
+        <v>176.14</v>
+      </c>
+      <c r="G47">
         <v>40</v>
       </c>
-      <c r="G42">
+      <c r="I47">
         <v>15.06</v>
       </c>
-      <c r="H42">
+      <c r="J47">
         <f t="shared" si="1"/>
         <v>7.4399999999999995</v>
       </c>
-      <c r="I42">
+      <c r="L47">
         <v>242.97</v>
       </c>
-      <c r="K42">
+      <c r="N47">
         <v>0</v>
       </c>
-      <c r="L42" s="6">
+      <c r="O47" s="6">
         <v>0.6</v>
       </c>
-      <c r="M42">
+      <c r="P47">
         <v>54.18</v>
       </c>
-      <c r="N42">
+      <c r="Q47">
         <v>156.63999999999999</v>
       </c>
-      <c r="O42">
+      <c r="R47">
         <v>32</v>
       </c>
-      <c r="P42">
+      <c r="S47">
         <v>16.440000000000001</v>
       </c>
-      <c r="Q42">
+      <c r="T47">
         <f t="shared" si="2"/>
         <v>8.9800000000000182</v>
       </c>
-      <c r="R42">
+      <c r="U47">
         <v>268.24</v>
       </c>
-      <c r="S42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="V47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E43">
+      <c r="E48">
         <v>110.9</v>
       </c>
-      <c r="F43">
+      <c r="F48">
+        <f t="shared" ref="F48:F56" si="23">E48/G48*40</f>
+        <v>138.58169322086849</v>
+      </c>
+      <c r="G48">
         <v>32.01</v>
       </c>
-      <c r="G43">
+      <c r="I48">
         <v>15.37</v>
       </c>
-      <c r="H43">
+      <c r="J48">
         <f t="shared" si="1"/>
         <v>7.140000000000013</v>
       </c>
-      <c r="I43">
+      <c r="L48">
         <v>170.36</v>
       </c>
-      <c r="J43" t="s">
-        <v>202</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" s="6">
-        <v>1</v>
-      </c>
-      <c r="M43">
+      <c r="M48" t="s">
+        <v>201</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" s="6">
+        <v>1</v>
+      </c>
+      <c r="P48">
         <v>78.38</v>
       </c>
-      <c r="N43">
+      <c r="Q48">
         <v>239.26</v>
       </c>
-      <c r="O43">
+      <c r="R48">
         <v>40</v>
       </c>
-      <c r="P43">
+      <c r="S48">
         <v>19.16</v>
       </c>
-      <c r="Q43">
+      <c r="T48">
         <f t="shared" si="2"/>
         <v>7.5099999999999909</v>
       </c>
-      <c r="R43">
+      <c r="U48">
         <v>384.31</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49">
         <v>0</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C49" s="6">
         <v>0.6</v>
       </c>
-      <c r="D44">
+      <c r="D49">
         <v>6.81</v>
       </c>
-      <c r="E44">
+      <c r="E49">
         <v>139.72999999999999</v>
       </c>
-      <c r="F44">
+      <c r="F49">
+        <f t="shared" si="23"/>
+        <v>232.78633902540605</v>
+      </c>
+      <c r="G49">
         <v>24.01</v>
       </c>
-      <c r="G44">
+      <c r="I49">
         <v>9.2100000000000009</v>
       </c>
-      <c r="H44">
+      <c r="J49">
         <f t="shared" si="1"/>
         <v>9.0599999999999987</v>
       </c>
-      <c r="I44">
+      <c r="L49">
         <v>188.82</v>
       </c>
-      <c r="K44">
+      <c r="N49">
         <v>0</v>
       </c>
-      <c r="L44" s="6">
+      <c r="O49" s="6">
         <v>0.6</v>
       </c>
-      <c r="M44">
+      <c r="P49">
         <v>51.34</v>
       </c>
-      <c r="N44">
+      <c r="Q49">
         <v>120.81</v>
       </c>
-      <c r="O44">
+      <c r="R49">
         <v>24</v>
       </c>
-      <c r="P44">
+      <c r="S49">
         <v>11.72</v>
       </c>
-      <c r="Q44">
+      <c r="T49">
         <f t="shared" si="2"/>
         <v>8.3599999999999852</v>
       </c>
-      <c r="R44">
+      <c r="U49">
         <v>216.23</v>
       </c>
-      <c r="S44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45">
+      <c r="V49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50">
         <v>0</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C50" s="6">
         <v>0.8</v>
       </c>
-      <c r="D45">
+      <c r="D50">
         <v>5.05</v>
       </c>
-      <c r="E45">
+      <c r="E50">
         <v>130.69999999999999</v>
       </c>
-      <c r="F45">
+      <c r="F50">
+        <f t="shared" si="23"/>
+        <v>130.69999999999999</v>
+      </c>
+      <c r="G50">
         <v>40</v>
       </c>
-      <c r="G45">
+      <c r="I50">
         <v>11.22</v>
       </c>
-      <c r="H45">
+      <c r="J50">
         <f t="shared" si="1"/>
         <v>11.909999999999995</v>
       </c>
-      <c r="I45">
+      <c r="L50">
         <v>198.88</v>
       </c>
-      <c r="K45">
+      <c r="N50">
         <v>0</v>
       </c>
-      <c r="L45" s="6">
+      <c r="O50" s="6">
         <v>0.8</v>
       </c>
-      <c r="M45">
+      <c r="P50">
         <v>54.12</v>
       </c>
-      <c r="N45">
+      <c r="Q50">
         <v>216.49</v>
       </c>
-      <c r="O45">
+      <c r="R50">
         <v>32.020000000000003</v>
       </c>
-      <c r="P45">
+      <c r="S50">
         <v>10.39</v>
       </c>
-      <c r="Q45">
+      <c r="T50">
         <f t="shared" si="2"/>
         <v>8.6700000000000159</v>
       </c>
-      <c r="R45">
+      <c r="U50">
         <v>321.69</v>
       </c>
-      <c r="S45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D46">
+      <c r="V50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <v>4.93</v>
       </c>
-      <c r="E46">
+      <c r="E51">
         <v>173.13</v>
       </c>
-      <c r="F46">
+      <c r="F51">
+        <f t="shared" si="23"/>
+        <v>173.13</v>
+      </c>
+      <c r="G51">
         <v>40</v>
       </c>
-      <c r="G46">
+      <c r="I51">
         <v>12.81</v>
       </c>
-      <c r="H46">
+      <c r="J51">
         <f t="shared" si="1"/>
         <v>7.6899999999999995</v>
       </c>
-      <c r="I46">
+      <c r="L51">
         <v>238.56</v>
       </c>
-      <c r="J46" t="s">
-        <v>205</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="M46">
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" s="6">
+        <v>1</v>
+      </c>
+      <c r="P51">
         <v>49.21</v>
       </c>
-      <c r="N46">
+      <c r="Q51">
         <v>198.08</v>
       </c>
-      <c r="O46">
+      <c r="R51">
         <v>40</v>
       </c>
-      <c r="P46">
+      <c r="S51">
         <v>20.09</v>
       </c>
-      <c r="Q46">
+      <c r="T51">
         <f t="shared" si="2"/>
         <v>-2.6499999999999773</v>
       </c>
-      <c r="R46">
+      <c r="U51">
         <v>304.73</v>
       </c>
-      <c r="S46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52">
         <v>0</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C52" s="6">
         <v>0.6</v>
       </c>
-      <c r="D47">
+      <c r="D52">
         <v>2.1</v>
       </c>
-      <c r="E47">
+      <c r="E52">
         <v>166.61</v>
       </c>
-      <c r="F47">
+      <c r="F52">
+        <f t="shared" si="23"/>
+        <v>208.26250000000002</v>
+      </c>
+      <c r="G52">
         <v>32</v>
       </c>
-      <c r="G47">
+      <c r="I52">
         <v>13.85</v>
       </c>
-      <c r="H47">
+      <c r="J52">
         <f t="shared" si="1"/>
         <v>6.9199999999999822</v>
       </c>
-      <c r="I47">
+      <c r="L52">
         <v>221.48</v>
       </c>
-      <c r="J47" t="s">
-        <v>209</v>
-      </c>
-      <c r="K47">
+      <c r="M52" t="s">
+        <v>206</v>
+      </c>
+      <c r="N52">
         <v>0</v>
       </c>
-      <c r="L47" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="M47">
+      <c r="O52" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="P52">
         <v>43.86</v>
       </c>
-      <c r="N47">
+      <c r="Q52">
         <v>145.29</v>
       </c>
-      <c r="O47">
+      <c r="R52">
         <v>24</v>
       </c>
-      <c r="P47">
+      <c r="S52">
         <v>12.57</v>
       </c>
-      <c r="Q47">
+      <c r="T52">
         <f t="shared" si="2"/>
         <v>7.0900000000000318</v>
       </c>
-      <c r="R47">
+      <c r="U52">
         <v>232.81</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C53" s="6">
         <v>0.8</v>
       </c>
-      <c r="D48">
+      <c r="D53">
         <v>3.12</v>
       </c>
-      <c r="E48">
+      <c r="E53">
         <v>138.46</v>
       </c>
-      <c r="F48">
+      <c r="F53">
+        <f t="shared" si="23"/>
+        <v>173.07500000000002</v>
+      </c>
+      <c r="G53">
         <v>32</v>
       </c>
-      <c r="G48">
+      <c r="I53">
         <v>15.05</v>
       </c>
-      <c r="H48">
+      <c r="J53">
         <f t="shared" si="1"/>
         <v>7.0499999999999936</v>
       </c>
-      <c r="I48">
+      <c r="L53">
         <v>195.68</v>
       </c>
-      <c r="J48" t="s">
-        <v>216</v>
-      </c>
-      <c r="K48">
+      <c r="M53" t="s">
+        <v>213</v>
+      </c>
+      <c r="N53">
         <v>0</v>
       </c>
-      <c r="L48" s="6">
+      <c r="O53" s="6">
         <v>0.6</v>
       </c>
-      <c r="M48">
+      <c r="P53">
         <v>50.61</v>
       </c>
-      <c r="N48">
+      <c r="Q53">
         <v>162.86000000000001</v>
       </c>
-      <c r="O48">
+      <c r="R53">
         <v>32</v>
       </c>
-      <c r="P48">
+      <c r="S53">
         <v>10.23</v>
       </c>
-      <c r="Q48">
-        <f t="shared" ref="Q48" si="5">-M48-N48-O48-P48+R48</f>
+      <c r="T53">
+        <f t="shared" ref="T53" si="24">-P53-Q53-R53-S53+U53</f>
         <v>7.879999999999967</v>
       </c>
-      <c r="R48">
+      <c r="U53">
         <v>263.58</v>
       </c>
-      <c r="S48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49">
+      <c r="V53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54">
         <v>0</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C54" s="6">
         <v>0.6</v>
       </c>
-      <c r="D49">
+      <c r="D54">
         <v>1.44</v>
       </c>
-      <c r="E49">
+      <c r="E54">
         <v>155.13</v>
       </c>
-      <c r="F49">
+      <c r="F54">
+        <f t="shared" si="23"/>
+        <v>258.55</v>
+      </c>
+      <c r="G54">
         <v>24</v>
       </c>
-      <c r="G49">
+      <c r="I54">
         <v>11.99</v>
       </c>
-      <c r="H49">
+      <c r="J54">
         <f t="shared" si="1"/>
         <v>7.1399999999999952</v>
       </c>
-      <c r="I49">
+      <c r="L54">
         <v>199.7</v>
       </c>
-      <c r="J49" t="s">
-        <v>215</v>
-      </c>
-      <c r="K49">
+      <c r="M54" t="s">
+        <v>212</v>
+      </c>
+      <c r="N54">
         <v>0</v>
       </c>
-      <c r="L49" s="6">
+      <c r="O54" s="6">
         <v>0.4</v>
       </c>
-      <c r="M49">
+      <c r="P54">
         <v>48.5</v>
       </c>
-      <c r="N49">
+      <c r="Q54">
         <v>172.99</v>
       </c>
-      <c r="O49">
+      <c r="R54">
         <v>32</v>
       </c>
-      <c r="P49">
+      <c r="S54">
         <v>8.69</v>
       </c>
-      <c r="Q49">
+      <c r="T54">
         <f t="shared" si="2"/>
         <v>7.2699999999999818</v>
       </c>
-      <c r="R49">
+      <c r="U54">
         <v>269.45</v>
       </c>
-      <c r="S49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50">
+      <c r="V54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55">
         <v>0</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C55" s="6">
         <v>0.8</v>
       </c>
-      <c r="H50">
+      <c r="J55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" s="6">
-        <v>1</v>
-      </c>
-      <c r="M50">
+      <c r="M55" t="s">
+        <v>209</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" s="6">
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>54.5</v>
       </c>
-      <c r="N50">
+      <c r="Q55">
         <v>172.74</v>
       </c>
-      <c r="O50">
+      <c r="R55">
         <v>40</v>
       </c>
-      <c r="P50">
+      <c r="S55">
         <v>13.27</v>
       </c>
-      <c r="Q50">
+      <c r="T55">
         <f t="shared" si="2"/>
         <v>7.1000000000000227</v>
       </c>
-      <c r="R50">
+      <c r="U55">
         <v>287.61</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56">
         <v>0</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C56" s="6">
         <v>0.6</v>
       </c>
-      <c r="D51">
+      <c r="D56">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E51">
+      <c r="E56">
         <v>84.01</v>
       </c>
-      <c r="F51">
+      <c r="F56">
+        <f t="shared" si="23"/>
+        <v>140.01666666666668</v>
+      </c>
+      <c r="G56">
         <v>24</v>
       </c>
-      <c r="G51">
+      <c r="I56">
         <v>13.88</v>
       </c>
-      <c r="H51">
+      <c r="J56">
         <f t="shared" si="1"/>
         <v>10.690000000000007</v>
       </c>
-      <c r="I51">
+      <c r="L56">
         <v>135.09</v>
       </c>
-      <c r="J51" t="s">
-        <v>214</v>
-      </c>
-      <c r="K51">
+      <c r="M56" t="s">
+        <v>211</v>
+      </c>
+      <c r="N56">
         <v>0</v>
       </c>
-      <c r="L51" s="6">
+      <c r="O56" s="6">
         <v>0.6</v>
       </c>
-      <c r="M51">
+      <c r="P56">
         <v>50.07</v>
       </c>
-      <c r="N51">
+      <c r="Q56">
         <v>93.35</v>
       </c>
-      <c r="O51">
+      <c r="R56">
         <v>24</v>
       </c>
-      <c r="P51">
+      <c r="S56">
         <v>11.81</v>
       </c>
-      <c r="Q51">
+      <c r="T56">
         <f t="shared" si="2"/>
         <v>7.0300000000000011</v>
       </c>
-      <c r="R51">
+      <c r="U56">
         <v>186.26</v>
       </c>
-      <c r="S51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <f>AVERAGE(B42:B51)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C52" s="7">
-        <f>AVERAGE(C42:C51)</f>
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="K52">
-        <f>AVERAGE(K42:K51)</f>
-        <v>0.2</v>
-      </c>
-      <c r="L52" s="7">
-        <f>AVERAGE(L42:L51)</f>
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C53" s="6"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C63" s="8"/>
+      <c r="V56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f>AVERAGE(B47:B56)</f>
+        <v>0.3</v>
+      </c>
+      <c r="C57">
+        <f>AVERAGE(C47:C56)</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:L57" si="25">AVERAGE(D47:D56)</f>
+        <v>3.9144444444444439</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="25"/>
+        <v>141.64555555555557</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="25"/>
+        <v>181.24913321254903</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="25"/>
+        <v>32.002222222222223</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="25"/>
+        <v>13.159999999999998</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="25"/>
+        <v>7.5039999999999996</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="25"/>
+        <v>199.06000000000003</v>
+      </c>
+      <c r="N57">
+        <f>AVERAGE(N47:N56)</f>
+        <v>0.3</v>
+      </c>
+      <c r="O57">
+        <f>AVERAGE(O47:O56)</f>
+        <v>0.72</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ref="P57:U57" si="26">AVERAGE(P47:P56)</f>
+        <v>53.477000000000011</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="26"/>
+        <v>167.85100000000003</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="26"/>
+        <v>32.001999999999995</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="26"/>
+        <v>13.437000000000001</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="26"/>
+        <v>6.7240000000000038</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="26"/>
+        <v>273.49099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C58" s="6"/>
+      <c r="D58">
+        <f>AVERAGE(D47,D50:D51)</f>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:L58" si="27">AVERAGE(E47,E50:E51)</f>
+        <v>159.98999999999998</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="27"/>
+        <v>159.98999999999998</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="27"/>
+        <v>40</v>
+      </c>
+      <c r="H58" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="27"/>
+        <v>13.030000000000001</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="27"/>
+        <v>9.0133333333333301</v>
+      </c>
+      <c r="K58" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="27"/>
+        <v>226.80333333333337</v>
+      </c>
+      <c r="P58">
+        <f>AVERAGE(P55,P51,P48)</f>
+        <v>60.696666666666665</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ref="Q58:U58" si="28">AVERAGE(Q55,Q51,Q48)</f>
+        <v>203.36</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="28"/>
+        <v>17.506666666666664</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="28"/>
+        <v>3.9866666666666788</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="28"/>
+        <v>325.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D59">
+        <f>_xlfn.STDEV.P(D47,D50:D51)</f>
+        <v>0.31496031496047228</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:L59" si="29">_xlfn.STDEV.P(E47,E50:E51)</f>
+        <v>20.747579778534799</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="29"/>
+        <v>20.747579778534799</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="29"/>
+        <v>1.575372971711769</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="29"/>
+        <v>2.0507938842203424</v>
+      </c>
+      <c r="K59" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="29"/>
+        <v>19.826689643564361</v>
+      </c>
+      <c r="P59">
+        <f>_xlfn.STDEV.P(P48,P51,P55)</f>
+        <v>12.689135335221044</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ref="Q59:U59" si="30">_xlfn.STDEV.P(Q48,Q51,Q55)</f>
+        <v>27.412118974400091</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="30"/>
+        <v>3.0197387672151801</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="30"/>
+        <v>4.6958161046711373</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="30"/>
+        <v>42.133334388185951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <f>SUM(D58,E58,G58,I58,J58)</f>
+        <v>226.80333333333331</v>
+      </c>
+      <c r="U60">
+        <f>SUM(P58:T58)</f>
+        <v>325.55</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
